--- a/finetuning/it_datasets/it_dataset/it_gafsa_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_gafsa_dataset.xlsx
@@ -646,9 +646,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out CAFE'IN located at CQJ5+8FG CAFE'IN, Gafsa. 
-This top-rated destination is perfect for kfyh lovers and offers a range of kfyh to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7024237, 10.2398348. For more details, visit their website at https://www.google.com/maps/place/CAF%C3%89'IN/@34.4308171,8.7586885,17z/data=!3m1!4b1!4m6!3m5!1s0x12f897002648124b:0x59d87c72744cdef9!8m2!3d34.4308171!4d8.7586885!16s%2Fg%2F11vrxvwz_3?authuser=0&amp;entry=ttu.</t>
+          <t>CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -751,7 +749,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Cafe Marrakech located at Cafe Marrakech a cote d'Usine de marbre Hamid Derbali La route de Gafsa, 2113. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: (34.3114341, 8.4216957). For more details, visit their website at https://www.google.com/maps/place/Cafe+Marrakech/data=!4m7!3m6!1s0x12f87d7dc097cc33:0xb4027ee6fe7fd069!8m2!3d34.3132143!4d8.4229105!16s%2Fg%2F11fpmqb2g5!19sChIJM8yXwH19-BIRadB__uZ-ArQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 651 410.</t>
+          <t>Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -854,7 +852,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you are in gafsa and searching for a good Hotel, check out dar seddik residence d artistes situated at oasis, Gafsa 2100. It has a rating of 4.7 and is one of the top-rated destinations for Hotel enthusiasts. With 35 reviews, it is a must-visit spot. Guests often mention "diner" and "chambre" in their reviews, indicating the high quality of food and accommodations. For more information, visit their website at https://www.facebook.com/mounir.letaief.5 or contact them at 21 171 717.</t>
+          <t>Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.</t>
         </is>
       </c>
     </row>
@@ -957,7 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>In gafsa, dar seddik residence d artistes is a must-visit spot for Hotel enthusiasts, with a rating of 4.7. Located at oasis, Gafsa 2100, this top-rated destination offers a range of categories to choose from. It's open during these hours: nan, but closed on . To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1050,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Dar kaabachi. Located at 1, Dar kaabachi, Zarroug amel, Gafsa, this top-rated destination is perfect for Villa lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Dar+kaabachi/data=!4m10!3m9!1s0x12f8972944827195:0xbe5cc8fc2ca45627!5m2!4m1!1i2!8m2!3d34.4311167!4d8.7756718!16s%2Fg%2F11t814bvnl!19sChIJlXGCRCmX-BIRJ1akLPzIXL4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1153,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a great place to stay, check out dar seddik residence d artistes located at oasis, Gafsa 2100. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1256,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a place to stay, check out dar seddik residence d artistes located at oasis, Gafsa 2100. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.</t>
         </is>
       </c>
     </row>
@@ -1361,9 +1359,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out dar seddik residence d artistes located at oasis, Gafsa 2100. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1454,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Lac de Gafsa located at Lac de Gafsa. This top-rated destination is perfect for Lac lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.5, 9.0. For more details, visit their website at https://www.google.com/maps/place/Lac+de+Gafsa/data=!4m7!3m6!1s0x12f888f6e803791d:0xc101db39ef8e6c14!8m2!3d34.4174!4d8.5323!16s%2Fm%2F011jqfdt!19sChIJHXkD6PaI-BIRFGyO7znbAcE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1557,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out dr lHwt located at CR53+545 dr lHwt, Gafsa. This top-rated destination is perfect for Marche aux poissons et fruits de mer lovers and offers a range of Marche aux poissons et fruits de mer to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100089697336396%26mibextid%3DZbWKwL or call them at 54 697 819.</t>
+          <t>Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.</t>
         </is>
       </c>
     </row>
@@ -1660,9 +1656,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Le Bassin Romain located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Attraction touristique to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 34.417313800591, 8.785810776674. For more details, visit their website at https://www.google.com/maps/place/Le+Bassin+Romain/data=!4m7!3m6!1s0x12f896fe76e06973:0x7b2f3ec9f81a6a89!8m2!3d34.4157034!4d8.7869275!16s%2Fg%2F11h0s2xfj!19sChIJc2ngdv6W-BIRiWoa-Mk-L3s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at phone.</t>
+          <t>Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1759,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a historical place to visit, check out Dar Loungou located at CQ8P+2W5 Dar Loungou, Gafsa. This top-rated destination is perfect for history lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-14:00, but closed on Saturday and Sunday. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Dar+Loungou/data=!4m7!3m6!1s0x12f896fe0d7c66db:0x44d9cd4c0033949a!8m2!3d34.415023!4d8.7873456!16s%2Fg%2F11fy8_dsfv!19sChIJ22Z8Df6W-BIRmpQzAEzN2UQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 710 906.</t>
+          <t>Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1858,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, La Grande Mosquee de Gafsa is a must-visit spot. This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from, including Attraction and Lieu historique. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4164729, 8.7864657. For more details, visit their website at https://www.google.com/maps/place/La+Grande+Mosqu%C3%A9e+de+Gafsa/data=!4m7!3m6!1s0x12f896fdd5845a0f:0x362e5cd353a1f600!8m2!3d34.4150807!4d8.7855187!16s%2Fg%2F11f006ggx_!19sChIJD1qE1f2W-BIRAPahU9NcLjY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 665 752.</t>
+          <t>La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.</t>
         </is>
       </c>
     </row>
@@ -1959,9 +1953,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Musee archeologique de Gafsa located at CQ8P+CR9 Musee archeologique de Gafsa, Gafsa. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website or call them at .</t>
+          <t>The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2048,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Musee archeologique de Gafsa located at CQ8P+CR9 Musee archeologique de Gafsa, Gafsa. This top-rated destination is perfect for Musee archeologique lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4161756, 8.7865704.</t>
+          <t>Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.</t>
         </is>
       </c>
     </row>
@@ -2155,9 +2147,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Gafsa and looking for a fascinating historical site, visit Le Bassin Romain on Avenue Habib Bourguiba. 
-This top-rated destination, with a 4.2 rating, is perfect for history enthusiasts and offers an intriguing glimpse into the region's past. With its convenient 24-hour availability, it's a must-visit spot. 
-To get there, use the GPS coordinates or visit their website for more details.</t>
+          <t>Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2242,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do in Lac, check out Lac de Gafsa located at Lac de Gafsa. This top-rated destination is perfect for Lac lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.5, 9.0. For more details, visit their website at https://www.google.com/maps/place/Lac+de+Gafsa/data=!4m7!3m6!1s0x12f888f6e803791d:0xc101db39ef8e6c14!8m2!3d34.4174!4d8.5323!16s%2Fm%2F011jqfdt!19sChIJHXkD6PaI-BIRFGyO7znbAcE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2345,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Dar Loungou located at CQ8P+2W5 Dar Loungou, Gafsa. This top-rated destination is perfect for Lieu historique and Site historique lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-14:00, but closed on samedi, dimanche. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Dar+Loungou/data=!4m7!3m6!1s0x12f896fe0d7c66db:0x44d9cd4c0033949a!8m2!3d34.415023!4d8.7873456!16s%2Fg%2F11fy8_dsfv!19sChIJ22Z8Df6W-BIRmpQzAEzN2UQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 710 906.</t>
+          <t>Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2440,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Musee archeologique de Gafsa located at CQ8P+CR9 Musee archeologique de Gafsa, Gafsa. This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4161756, 8.7865704. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+arch%C3%A9ologique+de+Gafsa/data=!4m7!3m6!1s0x12f896fe7a4a6409:0x66552fb34ab06073!8m2!3d34.4160292!4d8.7871081!16s%2Fm%2F05b4y21!19sChIJCWRKev6W-BIRc2CwSrMvVWY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2535,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Oasis de Gafsa located at Oasis de Gafsa. This top-rated destination is perfect for Agricultural lovers and offers a range of Agricultural to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 9.9329491, 78.1344816.</t>
+          <t>Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2630,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Montagne El Mida located at Montagne El Mida, Gafsa. This top-rated destination is perfect for Sommet montagneux lovers and offers a range of Sommet montagneux to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use coordinates (34.4159879, 8.7920119).</t>
+          <t>The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.</t>
         </is>
       </c>
     </row>
@@ -2739,9 +2729,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Club Bayech located at CQ7V+8H6 Club Bayech, Gafsa. 
-This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at  or call them at 54 361 700.</t>
+          <t>Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2828,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Desparados located at CQH4+7C8 Desparados, Unnamed Road. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2931,8 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Pizzeria, check out TOMATO located at CQ9R+CH7 TOMATO, Ctre, Gafsa. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-21:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/TOMATO/data=!4m7!3m6!1s0x12f896ff4e33c269:0x16a8bef22111e6b0!8m2!3d34.4185381!4d8.7914228!16s%2Fg%2F11c2qls56b!19sChIJacIzTv-W-BIRsOYRIfK-qBY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 429 319.</t>
+          <t>**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3035,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Gafsa and looking for a great restaurant, check out Mix Max +, located at CQGM+6HV in Gafsa. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.facebook.com/Mix-Max-1196930583793404 or call them at 95 538 720.</t>
+          <t>Mix Max+ is a restaurant situated in the city of Gafsa, Tunisia. It offers its customers a wide range of services, including a diverse menu and a friendly atmosphere. It is conveniently located at the coordinates (34.4159879, 8.7920119). With a rating of 4.1 and 18 positive reviews, Mix Max+ has established itself as a popular dining destination in the area.</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3142,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out RESTO SOLAS located at CQCQ+CFC RESTO SOLAS, Gafsa 2100. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:30, but closed on dimanche. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://m.facebook.com/profile.php%3Fid%3D100074120465587%26tsid%3D0.8582983252328997%26source%3Dresult or call them at 95 296 832.</t>
+          <t>RESTO SOLAS is a restaurant located in Gafsa, Tunisia, offering a variety of dishes. It has a 5.0 rating based on 14 reviews and is open from 09:00-21:30 on weekdays, but closed on Sundays. The restaurant's location is at coordinates (34.3134278, 8.4913002).</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3245,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Minima Coffee Shop located at CQCV+2F4 Minima Coffee Shop, pres de Pharmacie Gharbia Doualy, Gafsa. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Minima+Coffee+Shop/data=!4m7!3m6!1s0x12f896566b30e0c3:0xcebee18e06ab5892!8m2!3d34.4200126!4d8.7936876!16s%2Fg%2F11hd7dw3l0!19sChIJw-Awa1aW-BIRklirBo7hvs4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 334 013.</t>
+          <t>Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3348,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Fricasse HAMMA located at CQCP+WR6 Fricasse HAMMA, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Fricass%C3%A9+HAMMA/data=!4m7!3m6!1s0x12f896f98391c907:0xf76fc9aebcdc6de9!8m2!3d34.4222797!4d8.7870255!16s%2Fg%2F11gbf9gqkm!19sChIJB8mRg_mW-BIR6W3cvK7Jb_c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 153 940.</t>
+          <t>Fricasse HAMMA is a restaurant located in Gafsa, Tunisia. It offers a variety of dishes, and is open from 7am to 8pm. The restaurant has a rating of 4.3 out of 5 stars, and is located at the coordinates (34.4159879, 8.7920119).</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3451,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Mia Cucina located at CQ9R+64R Mia Cucina, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on ['dimanche']. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Mia+Cucina/data=!4m7!3m6!1s0x12f896ff3b848959:0xbd93142204fa2d78!8m2!3d34.4181148!4d8.7902755!16s%2Fg%2F11csp866wx!19sChIJWYmEO_-W-BIReC36BCIUk70?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 252 005.</t>
+          <t>Mia Cucina is an excellent restaurant in Gafsa, Tunisia. They offer a wide variety of dishes, all of which are prepared with fresh ingredients and cooked to perfection. The staff is friendly and attentive, and the atmosphere is warm and inviting. The restaurant itself is in a convenient location, making it easy to get to.</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3550,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in Gafsa and looking for a delicious crepe, head to SoCrunchy located at CQCH+R6X Unnamed Road. This top-rated Creperie offers a range of crepes to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. It's open during these hours: 08:00-22:00.</t>
+          <t>SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3649,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a delicious burger, check out Spicy Burger located at CQCM+XV9. This top-rated restaurant is perfect for burger lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website or call them at 20 108 481.</t>
+          <t>Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3752,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Pizzeria tozriana located at CQH4+G69 Pizzeria tozriana, Unnamed Road, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, or call them at 97 389 592.</t>
+          <t>Pizzeria tozriana is a highly rated restaurant located in gafsa (coordinates: (34.4159879, 8.7920119)). It offers a great dining experience with a 5.0 rating and positive reviews. The restaurant is open from 08:00-00:00 and is closed on .</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3859,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out lblby wld bd@ located at lblby wld bd@, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 15:00-01:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100091448336864%26mibextid%3DZbWKwL or call them at 29 235 009.</t>
+          <t>**Lblby wld bd@** is a highly-rated restaurant located in Gafsa, Tunisia. It boasts a 5.0-star rating based on 4 reviews and is known for its delectable cuisine and warm ambiance. The restaurant is open from 3 PM to 1 AM daily, making it a great spot for both lunch and dinner. Its convenient location at (34.4159879, 8.7920119) makes it easily accessible to locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3966,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Barbecue GAFSA located at CPCW+7F rue tozeur, Gafsa 2100. This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of Restaurant de grillades, Restaurant de riz to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://bbq-mutton-barbecue-restaurant.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral or call them at 56 012 657.</t>
+          <t>Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4061,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Fricasse/Metabga chez Ibrahim Bendhaher located at CQCV+77M Fricasse/Metabga chez Ibrahim Bendhaher, Place Pasteur, Doualy, Gafsa. This top-rated destination is perfect for Restaurant servant le petit-dejeuner lovers and offers a range of Restaurant servant le petit-dejeuner to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website or call them at 20 787 132.</t>
+          <t>Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4160,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out tarkina ltrkyn@ located at CQCQ+4FV tarkina ltrkyn@, Gafsa. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, call them at 58 870 767.</t>
+          <t>**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4263,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out MaMa Pizza located at Avenue Palestine Gafsa Sud, 2100. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.428025289113, 8.782860983013. For more details, visit their website or call them at 54 410 216.</t>
+          <t>MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.</t>
         </is>
       </c>
     </row>
@@ -4377,9 +4366,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a delicious meal, check out Bubble waffle located at CQMJ+6GQ. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:30-22:00, but closed on . To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at  or call them at 23 930 291.</t>
+          <t>Bubble waffle is a restaurant located in gafsa, Tunisia. It is rated 5.0 stars and has 2 reviews. It offers a variety of dishes and is open from 09:30 to 22:00. The restaurant is located at CQMJ+6GQ and can be contacted at 23 930 291.</t>
         </is>
       </c>
     </row>
@@ -4478,9 +4465,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Pizzeria pasta bella located at CQH4+Q4M Pizzeria pasta bella, Unnamed Road, Gafsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+pasta+bella/data=!4m7!3m6!1s0x12f897db687b3881:0xb9ff9761c7b0d48a!8m2!3d34.4294736!4d8.7552895!16s%2Fg%2F11h_vbddqs!19sChIJgTh7aNuX-BIRitSwx2GX_7k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 803 444.</t>
+          <t>Pizzeria Pasta Bella is a 5-star rated restaurant located at coordinates (34.4159879, 8.7920119) in Gafsa, Tunisia (Unnamed Road, CQH4+Q4M). It specializes in pizzas and pastas, and its featured image shows a mouthwatering pizza. The restaurant has 2 reviews, and it can be contacted at the phone number 99 803 444. However, information about its website, description, owner, workdays timing, closed days, and review keywords is currently unavailable.</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4568,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out D'ma9+ located at CQCR+QF6 D'ma9+, Gafsa. This top-rated Restaurant is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website or call them at 24 189 897.</t>
+          <t>Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4659,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a great place to eat, check out Restaurant Kerrou located at CQH6+8WX Restaurant Kerrou, P3, Gafsa. It's a top-rated destination for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>Restaurant Kerrou, located in gafsa (coordinates: 34.4159879, 8.7920119), is a highly rated establishment with a 4.5-star rating based on 2 reviews. Despite not having a website or featured image, this restaurant has a strong presence on Google Maps with a personalized link: https://www.google.com/maps/place/Restaurant+Kerrou/data=!4m7!3m6!1s0x12f897a910473c31:0x6ba0092e75ebfc8b!8m2!3d34.4280912!4d8.7621683!16s%2Fg%2F11tfhp1k_s!19sChIJMTxHEKmX-BIRi_zrdS4JoGs?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -4769,8 +4754,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Restaurant, check out mT`m lkhym@ sydy bwzyd located at mT`m lkhym@ sydy bwzyd, Institut superieur des etudes technologiques de Gafsa, Tryq qfS@ mqbl. 
-This is a must-visit spot for Restaurant lovers with a rating of 5.0. To get there, use these GPS coordinates: 34.4302825, 8.7623937. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%AE%D9%8A%D9%85%D8%A9+%D8%B3%D9%8A%D8%AF%D9%8A+%D8%A8%D9%88%D8%B2%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x12f89706c348866f:0x9815c4bee93039f3!8m2!3d34.4298014!4d8.7623744!16s%2Fg%2F11frtdn369!19sChIJb4ZIwwaX-BIR8zkw6b7EFZg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 886 093.</t>
+          <t>mT`m lkhym@ sydy bwzyd is a 5-star rated restaurant located in Gafsa, Tunisia. It is known for its delicious cuisine and friendly service. The restaurant is situated near the Institut superieur des etudes technologiques de Gafsa and is easily accessible by car, which is recommended, as public transportation may not be reliable in the area.</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4853,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Restaurant tunisien, check out mTbq@ qfSy@ `lmy@ `nd `m lnjy located at CQFH+6PQ mTbq@ qfSy@ `lmy@ `nd `m lnjy, Gafsa. This popular destination offers a range of categories to choose from. With a 5.0 rating, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%A8%D9%82%D8%A9+%D9%82%D9%81%D8%B5%D9%8A%D8%A9+%D8%B9%D8%A7%D9%84%D9%85%D9%8A%D8%A9+%D8%B9%D9%86%D8%AF+%D8%B9%D9%85+%D8%A7%D9%84%D9%86%D8%A7%D8%AC%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12f897a7c4a1af3f:0xf1c4e40c6ac43c5f!8m2!3d34.4222866!4d8.7793068!16s%2Fg%2F11swthgdf7!19sChIJP6-hxKeX-BIRXzzEagzkxPE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4956,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Oj snacks located at Oj snacks, P3, Gafsa 2151. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 18:00-00:00, but closed on none. To get there, use these GPS coordinates: 34.3992622, 8.8151559. For more details, visit their website at none or call them at 54 902 419.</t>
+          <t>**Oj snacks** is a restaurant located in gafsa (34.3992622, 8.8151559) that offers a 5-star dining experience. It is open from 18:00 to 00:00 and is currently closed on no days.</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5055,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out dream parc located at CPCW+7FM dream parc, rue tozeur. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/dream+parc/data=!4m7!3m6!1s0x12f8912b12f1a9a7:0x3f1e6ac9d7df477f!8m2!3d34.4207126!4d8.7461639!16s%2Fg%2F11dx95_fhz!19sChIJp6nxEiuR-BIRf0ff18lqHj8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5146,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Restaurant, check out Grillade de viande et de poisson located at CQG6+RWM Grillade de viande et de poisson, Gafsa. This destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>Grillade de viande et de poisson is a restaurant located in Gafsa, Tunisia. It offers a variety of grilled meat and fish dishes. The restaurant is highly rated by customers, with a 5.0 rating on Google Maps. It is located at the coordinates (34.4159879, 8.7920119).</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5237,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out l'oasis located at CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/l%27oasis/data=!4m7!3m6!1s0x12f89756decdd965:0x6497df9fc03299dd!8m2!3d34.4309739!4d8.7524925!16s%2Fg%2F11rstclfbm!19sChIJZdnN3laX-BIR3ZkywJ_fl2Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5332,8 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in gafsa, Gare ferroviaire Gafsa El Ksar is a top-rated destination for Gare lovers. Located at Gare ferroviaire Gafsa El Ksar mHT@ lqTr qfS@ lqSr, P15, Gafsa Gare, it boasts a 3.7 rating and offers a range of categories to choose from. For more information, visit their website at https://www.google.com/maps/place/Gare+ferroviaire+Gafsa+El+Ksar+%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%82%D8%B7%D8%A7%D8%B1+%D9%82%D9%81%D8%B5%D8%A9+%D8%A7%D9%84%D9%82%D8%B5%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x12f897bc9ece2d71:0x9d1ae20fd444ad12!8m2!3d34.3949346!4d8.8037717!16s%2Fg%2F1wb443nh!19sChIJcS3OnryX-BIREq1E1A_iGp0?authuser=0&amp;hl=fr&amp;rclk=1 or call for details.</t>
+          <t>**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5428,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a Station-service, check out Station service TOTAL located at CQF8+2PM Station service TOTAL, Gafsa 2100. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.3134278, 8.4913002.</t>
+          <t>Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.</t>
         </is>
       </c>
     </row>
@@ -5538,7 +5523,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a reliable gas station, look no further than Station service AGIL GAFSA ROUTE DE TOZEUR. Located at CQF7+34J Station service AGIL GAFSA ROUTE DE TOZEUR, P3, Gafsa, it offers top-notch services for all your fueling needs. The station has earned a 4.1-star rating, making it a must-visit spot for drivers in the area. To get there, simply follow the GPS coordinates: 34.4226775, 8.76276. If you have any questions or need further assistance, don't hesitate to call them at 76 229 243.</t>
+          <t>Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5618,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Station-service, look no further than Station Agil. Located at CQ8R+2WC Station Agil, P15, Gafsa, this must-visit spot boasts a rating of 4.3.</t>
+          <t>**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5713,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you are in Gafsa looking for a reliable and convenient public transport option, check out Al Kawafil bus station. Located at station de bus Al Kawafil, Gafsa 2100, this well-rated destination is the perfect solution for your transportation needs. With a rating of 4.0, it's a must-visit spot for locals and tourists alike. For more details, visit their website at https://www.google.com/maps/place/station+de+bus+Al+Kawafil/data=!4m7!3m6!1s0x12f896ff0131ad69:0xeba1402c87f08373!8m2!3d34.4164574!4d8.7896869!16s%2Fg%2F1tlk3qqc!19sChIJaa0xAf-W-BIRc4PwhyxAoes?authuser=0&amp;hl=fr&amp;rclk=1 or call them at To get there, use these GPS coordinates: 34.3134278, 8.4913002.</t>
+          <t>The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5808,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a reliable transportation service, station de transport terrestre Gafsa is a top-rated destination. Located at CQ8R+J3V station de transport terrestre Gafsa, Ctre, Gafsa, this service provider offers a range of options for all your transportation needs. With a rating of 2.7, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>The station de transport terrestre Gafsa is a transportation hub located in the heart of Gafsa, Tunisia. It is a central hub for buses, offering passengers connections to destinations throughout the country. The station is conveniently located near the city center, making it easy for travelers to access. It serves as a convenient starting point for exploring the region and provides travelers with access to various transportation options.</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5903,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for transportation services, check out Station de bus SRTG located at CQ8Q+HV8 Station de bus SRTG, Gafsa. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, call them at 53 007 814.</t>
+          <t>The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.</t>
         </is>
       </c>
     </row>
@@ -6009,7 +5994,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Station de taxis, check out Station de Taxis Gafsa II located at CQCQ+679 Station de Taxis Gafsa II, Ctre, Gafsa. This destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4181328, 8.789575.</t>
+          <t>The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -6112,9 +6097,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a convenient stop, check out Station Shell. 
-This top-rated destination is the perfect spot for Station-service enthusiasts and offers a range of services to choose from, including a car wash and a convenience store. 
-With a rating of 4.7, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044770-gafsa-iii or call them at 71 249 149.</t>
+          <t>Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6188,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Station de Bus located at Station de Bus, Gafsa. This top-rated destination is perfect for Arret de transports en commun lovers and offers a range of Arret de transports en commun to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.3336007, 8.9467974. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus/data=!4m7!3m6!1s0x12f89655631b7391:0x6531b13cbc4399b!8m2!3d34.415382!4d8.7923773!16s%2Fg%2F1v2g9zrf!19sChIJkXMbY1WW-BIRmznEyxMbUwY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.</t>
         </is>
       </c>
     </row>
@@ -6296,9 +6279,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a reliable gas station, check out Station de Taxis Gafsa 3 located at CQCQ+222 Station de Taxis Gafsa 3, Ctre, Gafsa. 
-This top-rated destination is perfect for fueling up your vehicle and offers a range of services to choose from. 
-With a rating of 4.0, it's a must-visit spot for drivers. It's open during these hours: [workday_timing], but closed on [closed_on]. To get there, use these GPS coordinates: 34.4181328, 8.789575. For more details, visit their website at [website] or call them at [phone].</t>
+          <t>Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6378,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Service de location d'autobus, check out Station Louage OMlarayis-GAFSA located at F7R8+9RH Station Louage OMlarayis-GAFSA, Umm Al Arais. This destination is perfect for Service de location d'autobus lovers. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4888, 8.26874. For more details, call them at 92 500 056.</t>
+          <t>Station Louage OMlarayis-GAFSA is a bus rental service located in Umm Al Arais, Gafsa, Tunisia. It offers bus rental services for various purposes.</t>
         </is>
       </c>
     </row>
